--- a/TestCases/Data/CSV/test_demand.xlsx
+++ b/TestCases/Data/CSV/test_demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/erikkko_ntnu_no/Documents/Skole/5 klasse/Master/MasterVS/Master-Thesis-NTNU/TestCases/Data/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{3D6CADF2-0C2C-4A71-9E1B-07505616C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3340FABA-F490-40FD-B8C6-A69BB9BAC1BE}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{3D6CADF2-0C2C-4A71-9E1B-07505616C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA013378-B2C9-4F4D-97F7-51D2230E9F0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CA9EDD8-2C2A-48F9-BF2A-DEE49D5A22D0}"/>
+    <workbookView xWindow="34464" yWindow="1860" windowWidth="11712" windowHeight="12336" xr2:uid="{1CA9EDD8-2C2A-48F9-BF2A-DEE49D5A22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Width</t>
   </si>
@@ -56,19 +56,16 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Window</t>
   </si>
   <si>
     <t>Door</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>Slab</t>
   </si>
 </sst>
 </file>
@@ -125,6 +122,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C79B765-C2DA-43B8-8FCB-72B86D8BCBD3}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -475,159 +476,160 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>D2</f>
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <f>C2*D2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f>(C2*D2^(3))/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B5" si="0">D3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E5" si="1">C3*D3</f>
-        <v>4</v>
+        <f t="shared" ref="E3:E5" si="0">C3*D3</f>
+        <v>6</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="2">(C3*D3^(3))/12</f>
-        <v>1.3333333333333333</v>
+        <f>(C3*D3^(3))/12</f>
+        <v>4.5</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>2.5</v>
       </c>
       <c r="D4" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>3.2552083333333335</v>
+        <f t="shared" ref="F4:F5" si="1">(C4*D4^(3))/12</f>
+        <v>13.333333333333334</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6*D6</f>
+        <v>0.12</v>
+      </c>
+      <c r="F6">
+        <f>(C6*D6^(3))/12</f>
+        <v>1.6000000000000005E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7*D7</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <f>(C7*D7^(3))/12</f>
+        <v>6.6666666666666686E-4</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
